--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42597B-BBE1-4D49-A09C-3089DC3A4D6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDB0A9-5FD5-4E31-AA53-338C185F8880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="615" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,13 @@
     <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
   </si>
   <si>
-    <t>Expected graduation: May 2021.</t>
-  </si>
-  <si>
     <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Quantitative Ethnography Using Public Listserv Archives."</t>
   </si>
   <si>
     <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>Expected graduation: December 2020.</t>
   </si>
 </sst>
 </file>
@@ -960,12 +960,12 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDB0A9-5FD5-4E31-AA53-338C185F8880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B1A81-B8ED-4D56-BA58-35FD95D272EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>Seoul, South Korea</t>
   </si>
   <si>
-    <t>Expected graduation: December 2020.</t>
+    <t>Expected graduation: May 2021.</t>
   </si>
 </sst>
 </file>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JooYoung\Desktop\backup_desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B1A81-B8ED-4D56-BA58-35FD95D272EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1065" windowWidth="19200" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>what</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Sungkyunkwan University</t>
   </si>
   <si>
-    <t>B.A. in Education</t>
-  </si>
-  <si>
-    <t>B.A. in English Literature</t>
-  </si>
-  <si>
     <t>Mar. 2009 - Feb. 2014</t>
   </si>
   <si>
@@ -83,6 +77,9 @@
   </si>
   <si>
     <t>Expected graduation: May 2021.</t>
+  </si>
+  <si>
+    <t>Double B.A. in Education, English Literature</t>
   </si>
 </sst>
 </file>
@@ -923,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -960,20 +957,20 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -987,41 +984,24 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27774AF1-D6DF-46EB-97B6-DB242729F9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B28C2A-6C2F-4436-9DA8-2DBAAFE107C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>Seoul, South Korea</t>
   </si>
   <si>
-    <t>Expected graduation: May 2021.</t>
-  </si>
-  <si>
     <t>Double B.A. in Education, English Literature</t>
+  </si>
+  <si>
+    <t>Expected graduation: June 2021.</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -957,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -989,7 +991,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B28C2A-6C2F-4436-9DA8-2DBAAFE107C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C79F2-F45D-4C9E-B6FD-5BBA6DBB6EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
   </si>
   <si>
-    <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Quantitative Ethnography Using Public Listserv Archives."</t>
-  </si>
-  <si>
     <t>Seoul, South Korea</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Expected graduation: June 2021.</t>
+  </si>
+  <si>
+    <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Computational Ethnography Using Public Listserv Archives."</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,12 +959,12 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1000,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjysk\Box Sync\JY\blogging\cover_letter\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22C79F2-F45D-4C9E-B6FD-5BBA6DBB6EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CE23F-CE83-4E39-8B86-DEA16AF2F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>what</t>
   </si>
@@ -46,27 +46,12 @@
     <t>University Park, PA</t>
   </si>
   <si>
-    <t>Aug. 2016 - Present</t>
-  </si>
-  <si>
     <t>M.Ed. in Learning, Design, and Technology</t>
   </si>
   <si>
-    <t>Aug. 2014 - May. 2016</t>
-  </si>
-  <si>
     <t>Sungkyunkwan University</t>
   </si>
   <si>
-    <t>Mar. 2009 - Feb. 2014</t>
-  </si>
-  <si>
-    <t>GPA 3.97/4.0.</t>
-  </si>
-  <si>
-    <t>GPA 4.08/4.50.</t>
-  </si>
-  <si>
     <t>Committee members: Drs. Gabriela T. Richard (adviser; dissertation chair), Roy B. Clariana, ChanMin Kim, and Mary Beth Rosson.</t>
   </si>
   <si>
@@ -74,9 +59,6 @@
   </si>
   <si>
     <t>Double B.A. in Education, English Literature</t>
-  </si>
-  <si>
-    <t>Expected graduation: June 2021.</t>
   </si>
   <si>
     <t>Dissertation Title: "Discovering Informal Learning Cultures of Blind Individuals Pursuing STEM Disciplines: A Computational Ethnography Using Public Listserv Archives."</t>
@@ -920,11 +902,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -949,8 +929,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2">
+        <v>2021</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -959,51 +939,40 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
